--- a/BalanceSheet/ISRG_bal.xlsx
+++ b/BalanceSheet/ISRG_bal.xlsx
@@ -504,19 +504,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-41200000.0</v>
+        <v>577000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>6900000.0</v>
+        <v>602000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-56900000.0</v>
+        <v>663000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-54900000.0</v>
+        <v>646000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-65200000.0</v>
+        <v>620000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>595500000.0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>23700000.0</v>
+        <v>103000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>-28400000.0</v>
+        <v>82000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>-300000.0</v>
+        <v>116000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>-25500000.0</v>
+        <v>109000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>21900000.0</v>
+        <v>133000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>123500000.0</v>
@@ -3212,19 +3212,19 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>44700000.0</v>
+        <v>-337000000.0</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>-14300000.0</v>
+        <v>-368000000.0</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>19400000.0</v>
+        <v>-360000000.0</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>-12000000.0</v>
+        <v>-366000000.0</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>64500000.0</v>
+        <v>-365000000.0</v>
       </c>
       <c r="G22" s="0" t="n">
         <v>-426000000.0</v>
